--- a/Assets/Resources/Localization/Settings.xlsx
+++ b/Assets/Resources/Localization/Settings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Settings</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>#General</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>LanguageLocalized</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,9 +588,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
